--- a/doc/ファイル構成一覧表/ファイル構成一覧表_F2_fireworks.xlsx
+++ b/doc/ファイル構成一覧表/ファイル構成一覧表_F2_fireworks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\講師\SEプラス\2022_Dojo\6月資料\配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A107C-E402-49FA-9027-A5C57B9445DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DE485-5F72-406E-AC41-6539522A8860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -67,6 +67,131 @@
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>completionServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirmServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>completion.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confirm.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力内容確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面のjsp</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力内容確認画面のjsp</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用のjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面のjsp</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,14 +260,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -465,35 +587,35 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -502,10 +624,18 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -513,10 +643,18 @@
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -524,10 +662,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -535,10 +681,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -546,10 +700,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -557,10 +719,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -568,10 +738,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -579,17 +757,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -597,10 +780,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -608,360 +788,265 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/ファイル構成一覧表/ファイル構成一覧表_F2_fireworks.xlsx
+++ b/doc/ファイル構成一覧表/ファイル構成一覧表_F2_fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DE485-5F72-406E-AC41-6539522A8860}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61515B-E942-4A4F-885B-4FA8C732F339}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -193,6 +193,274 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>パスワードリセット画面用</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reset.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリセット画面のjsp</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resetServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qustionServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問回答画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newpwServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいパスワード入力画面用</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newpw.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問回答画面のjsp</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいパスワード入力画面のjsp</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ画面用</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ画面のjsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト画面用</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト画面用画面のjsp</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storyServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>story.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストーリー画面用</t>
+    <rPh sb="5" eb="8">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievment.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>achievmentServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>称号画面のjsp</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストーリー画面のjsp</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方画面のjsp</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+  </si>
+  <si>
+    <t>IDPWDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER関連にアクセスするためのDAO</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIST関連にアクセスするためのDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MessageDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MESSAGE関連にアクセスするためのDAO</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpotDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Idpw.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spot.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -217,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +495,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8D9F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93E3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,12 +592,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFB7"/>
+      <color rgb="FF93E3FF"/>
+      <color rgb="FFFFD1D1"/>
+      <color rgb="FFE8D9F3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -586,20 +946,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,343 +979,509 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4">
         <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B11" si="0">ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -963,7 +1489,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -971,7 +1497,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -979,7 +1505,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -987,7 +1513,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -995,7 +1521,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1003,7 +1529,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1011,7 +1537,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1019,7 +1545,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1027,7 +1553,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1035,7 +1561,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1051,6 +1577,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1221,36 +1762,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1273,9 +1788,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表/ファイル構成一覧表_F2_fireworks.xlsx
+++ b/doc/ファイル構成一覧表/ファイル構成一覧表_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3448B7AA-B7CC-42F9-88B7-FFBB949AD094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C486E8EB-CA64-494C-837C-4BE95AB6AB52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -478,6 +478,39 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下,南,日渡</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒワタリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田,辻,中島</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナカジマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -486,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,6 +532,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -600,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,6 +677,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,7 +1007,7 @@
   <dimension ref="B2:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -975,22 +1020,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1010,7 +1055,9 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3">
@@ -1028,7 +1075,9 @@
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4">
@@ -1047,7 +1096,9 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4">
@@ -1066,7 +1117,9 @@
       <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
@@ -1085,7 +1138,9 @@
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4">
@@ -1104,7 +1159,9 @@
       <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4">
@@ -1123,7 +1180,9 @@
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4">
@@ -1142,7 +1201,9 @@
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5"/>
@@ -1158,7 +1219,9 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5"/>
@@ -1174,7 +1237,9 @@
       <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5"/>
@@ -1190,7 +1255,9 @@
       <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5"/>
@@ -1206,7 +1273,9 @@
       <c r="F14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="5"/>
@@ -1222,7 +1291,9 @@
       <c r="F15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="5"/>
@@ -1238,7 +1309,9 @@
       <c r="F16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="6"/>
@@ -1254,7 +1327,9 @@
       <c r="F17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6"/>
@@ -1270,7 +1345,9 @@
       <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
@@ -1286,7 +1363,9 @@
       <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
@@ -1302,7 +1381,9 @@
       <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7"/>
@@ -1608,12 +1689,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1788,15 +1866,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1821,18 +1911,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>